--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,265 +40,256 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>complaints</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -656,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -725,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -743,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
         <v>31</v>
@@ -767,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -775,13 +766,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -793,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -817,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -825,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -843,19 +834,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -867,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -875,13 +866,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -893,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -917,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -925,13 +916,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.88</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -943,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -967,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -975,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.6335616438356164</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -993,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.8431372549019608</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1017,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1025,13 +1016,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8235294117647058</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1043,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1067,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1075,13 +1066,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8181818181818182</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1093,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1117,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1125,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1143,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1167,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1175,13 +1166,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7467532467532467</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C12">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1193,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1217,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1225,13 +1216,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1243,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1267,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1275,13 +1266,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1293,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.7450980392156863</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1317,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1325,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6666666666666666</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1343,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.7272727272727273</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1367,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1375,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6666666666666666</v>
+        <v>0.32</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1393,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7222222222222222</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1425,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6363636363636364</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1443,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1467,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1475,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.625</v>
+        <v>0.2829457364341085</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1493,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>370</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.6923076923076923</v>
+        <v>0.675</v>
       </c>
       <c r="L18">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1517,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1525,13 +1516,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5714285714285714</v>
+        <v>0.2486772486772487</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1543,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1567,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1575,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5625</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1593,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.6875</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1617,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1625,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1643,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.684931506849315</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1667,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1675,13 +1666,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4334763948497854</v>
+        <v>0.04825737265415549</v>
       </c>
       <c r="C22">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1693,19 +1684,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>132</v>
+        <v>355</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.68</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1717,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1725,37 +1716,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4285714285714285</v>
+        <v>0.005638474295190713</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>2998</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1767,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1775,903 +1766,687 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4137931034482759</v>
+        <v>0.005089058524173028</v>
       </c>
       <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>73</v>
+      </c>
+      <c r="E24">
+        <v>0.78</v>
+      </c>
+      <c r="F24">
+        <v>0.22</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>3128</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>0.5953002610966057</v>
+      </c>
+      <c r="L24">
+        <v>228</v>
+      </c>
+      <c r="M24">
+        <v>228</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="L25">
+        <v>13</v>
+      </c>
+      <c r="M25">
+        <v>13</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>12</v>
       </c>
-      <c r="D24">
-        <v>12</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="L27">
+        <v>19</v>
+      </c>
+      <c r="M27">
+        <v>19</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>17</v>
       </c>
-      <c r="J24" s="1" t="s">
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+      <c r="L28">
+        <v>17</v>
+      </c>
+      <c r="M28">
+        <v>17</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29">
+        <v>0.4911764705882353</v>
+      </c>
+      <c r="L29">
+        <v>167</v>
+      </c>
+      <c r="M29">
+        <v>167</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30">
+        <v>0.4831460674157304</v>
+      </c>
+      <c r="L30">
+        <v>43</v>
+      </c>
+      <c r="M30">
+        <v>43</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31">
+        <v>0.4769230769230769</v>
+      </c>
+      <c r="L31">
+        <v>31</v>
+      </c>
+      <c r="M31">
+        <v>31</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32">
+        <v>0.4745762711864407</v>
+      </c>
+      <c r="L32">
+        <v>140</v>
+      </c>
+      <c r="M32">
+        <v>140</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K24">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="L24">
+      <c r="K33">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L33">
+        <v>13</v>
+      </c>
+      <c r="M33">
+        <v>13</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34">
+        <v>0.4435146443514644</v>
+      </c>
+      <c r="L34">
+        <v>106</v>
+      </c>
+      <c r="M34">
+        <v>106</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35">
+        <v>0.4418604651162791</v>
+      </c>
+      <c r="L35">
+        <v>19</v>
+      </c>
+      <c r="M35">
+        <v>19</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36">
+        <v>0.4383561643835616</v>
+      </c>
+      <c r="L36">
+        <v>32</v>
+      </c>
+      <c r="M36">
+        <v>32</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37">
+        <v>0.425</v>
+      </c>
+      <c r="L37">
         <v>17</v>
       </c>
-      <c r="M24">
+      <c r="M37">
         <v>17</v>
       </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.4074074074074074</v>
-      </c>
-      <c r="C25">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>11</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38">
+        <v>0.421875</v>
+      </c>
+      <c r="L38">
+        <v>27</v>
+      </c>
+      <c r="M38">
+        <v>27</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39">
+        <v>0.3974358974358974</v>
+      </c>
+      <c r="L39">
+        <v>31</v>
+      </c>
+      <c r="M39">
+        <v>31</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K40">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="L40">
+        <v>17</v>
+      </c>
+      <c r="M40">
+        <v>17</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41">
+        <v>0.375</v>
+      </c>
+      <c r="L41">
+        <v>15</v>
+      </c>
+      <c r="M41">
+        <v>15</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K42">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="L42">
+        <v>15</v>
+      </c>
+      <c r="M42">
+        <v>15</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43">
+        <v>0.2</v>
+      </c>
+      <c r="L43">
+        <v>14</v>
+      </c>
+      <c r="M43">
+        <v>14</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44">
+        <v>0.1789473684210526</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <v>17</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45">
+        <v>0.1574803149606299</v>
+      </c>
+      <c r="L45">
+        <v>20</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K46">
+        <v>0.1068702290076336</v>
+      </c>
+      <c r="L46">
+        <v>14</v>
+      </c>
+      <c r="M46">
+        <v>14</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47">
+        <v>0.1033653846153846</v>
+      </c>
+      <c r="L47">
+        <v>43</v>
+      </c>
+      <c r="M47">
+        <v>43</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K48">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="L48">
         <v>16</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K25">
-        <v>0.6056338028169014</v>
-      </c>
-      <c r="L25">
-        <v>129</v>
-      </c>
-      <c r="M25">
-        <v>129</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.313953488372093</v>
-      </c>
-      <c r="C26">
-        <v>27</v>
-      </c>
-      <c r="D26">
-        <v>27</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>59</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-      <c r="M26">
-        <v>10</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.3125</v>
-      </c>
-      <c r="C27">
-        <v>25</v>
-      </c>
-      <c r="D27">
-        <v>25</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>55</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="L27">
-        <v>11</v>
-      </c>
-      <c r="M27">
-        <v>11</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>36</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28">
-        <v>0.5757575757575758</v>
-      </c>
-      <c r="L28">
-        <v>19</v>
-      </c>
-      <c r="M28">
-        <v>19</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.2</v>
-      </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>8</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>32</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="L29">
+      <c r="M48">
         <v>17</v>
       </c>
-      <c r="M29">
-        <v>17</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.1727272727272727</v>
-      </c>
-      <c r="C30">
-        <v>19</v>
-      </c>
-      <c r="D30">
-        <v>19</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>91</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30">
-        <v>0.5652173913043478</v>
-      </c>
-      <c r="L30">
-        <v>52</v>
-      </c>
-      <c r="M30">
-        <v>52</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.1021505376344086</v>
-      </c>
-      <c r="C31">
-        <v>19</v>
-      </c>
-      <c r="D31">
-        <v>19</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>167</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="L31">
-        <v>78</v>
-      </c>
-      <c r="M31">
-        <v>78</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.007346189164370982</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>42</v>
-      </c>
-      <c r="E32">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F32">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1081</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L32">
-        <v>15</v>
-      </c>
-      <c r="M32">
-        <v>15</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.007138221933809215</v>
-      </c>
-      <c r="C33">
-        <v>11</v>
-      </c>
-      <c r="D33">
-        <v>34</v>
-      </c>
-      <c r="E33">
-        <v>0.68</v>
-      </c>
-      <c r="F33">
-        <v>0.32</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1530</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="L33">
-        <v>9</v>
-      </c>
-      <c r="M33">
-        <v>9</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="L34">
-        <v>18</v>
-      </c>
-      <c r="M34">
-        <v>18</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35">
-        <v>0.5</v>
-      </c>
-      <c r="L35">
-        <v>11</v>
-      </c>
-      <c r="M35">
-        <v>11</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36">
-        <v>0.4883720930232558</v>
-      </c>
-      <c r="L36">
-        <v>63</v>
-      </c>
-      <c r="M36">
-        <v>63</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="L37">
-        <v>18</v>
-      </c>
-      <c r="M37">
-        <v>18</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K38">
-        <v>0.4375</v>
-      </c>
-      <c r="L38">
-        <v>14</v>
-      </c>
-      <c r="M38">
-        <v>14</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39">
-        <v>0.4054054054054054</v>
-      </c>
-      <c r="L39">
-        <v>15</v>
-      </c>
-      <c r="M39">
-        <v>15</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K40">
-        <v>0.4</v>
-      </c>
-      <c r="L40">
-        <v>8</v>
-      </c>
-      <c r="M40">
-        <v>8</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K41">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="L41">
-        <v>7</v>
-      </c>
-      <c r="M41">
-        <v>7</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K42">
-        <v>0.35</v>
-      </c>
-      <c r="L42">
-        <v>7</v>
-      </c>
-      <c r="M42">
-        <v>7</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43">
-        <v>0.32</v>
-      </c>
-      <c r="L43">
-        <v>8</v>
-      </c>
-      <c r="M43">
-        <v>8</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K44">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="L44">
-        <v>9</v>
-      </c>
-      <c r="M44">
-        <v>9</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K45">
-        <v>0.2058823529411765</v>
-      </c>
-      <c r="L45">
-        <v>7</v>
-      </c>
-      <c r="M45">
-        <v>7</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K46">
-        <v>0.1458333333333333</v>
-      </c>
-      <c r="L46">
-        <v>7</v>
-      </c>
-      <c r="M46">
-        <v>7</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K47">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="L47">
-        <v>15</v>
-      </c>
-      <c r="M47">
-        <v>15</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K48">
-        <v>0.07333333333333333</v>
-      </c>
-      <c r="L48">
-        <v>11</v>
-      </c>
-      <c r="M48">
-        <v>11</v>
-      </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.07291666666666667</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L49">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2683,21 +2458,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>89</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.06698564593301436</v>
+        <v>0.08851674641148326</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2709,73 +2484,73 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>195</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.05365853658536585</v>
+        <v>0.08227848101265822</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>388</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.04472843450479233</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N52">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O52">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>299</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.03990610328638498</v>
+        <v>0.06168831168831169</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2787,21 +2562,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>409</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K54">
-        <v>0.03214285714285714</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="L54">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2813,137 +2588,293 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>271</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.0304932735426009</v>
+        <v>0.058165548098434</v>
       </c>
       <c r="L55">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="M55">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="N55">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1081</v>
+        <v>842</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K56">
-        <v>0.02320185614849188</v>
+        <v>0.05504587155963303</v>
       </c>
       <c r="L56">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N56">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>421</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K57">
-        <v>0.02252252252252252</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L57">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="M57">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>434</v>
+        <v>852</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K58">
-        <v>0.01481004507405023</v>
+        <v>0.04742268041237113</v>
       </c>
       <c r="L58">
         <v>23</v>
       </c>
       <c r="M58">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N58">
-        <v>0.68</v>
+        <v>0.96</v>
       </c>
       <c r="O58">
-        <v>0.32</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>1530</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K59">
+        <v>0.04411074612857813</v>
+      </c>
+      <c r="L59">
         <v>94</v>
       </c>
-      <c r="K59">
-        <v>0.01067168863779033</v>
-      </c>
-      <c r="L59">
+      <c r="M59">
+        <v>106</v>
+      </c>
+      <c r="N59">
+        <v>0.89</v>
+      </c>
+      <c r="O59">
+        <v>0.11</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K60">
+        <v>0.04267589388696655</v>
+      </c>
+      <c r="L60">
+        <v>37</v>
+      </c>
+      <c r="M60">
+        <v>37</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K61">
+        <v>0.02977346278317152</v>
+      </c>
+      <c r="L61">
+        <v>92</v>
+      </c>
+      <c r="M61">
+        <v>109</v>
+      </c>
+      <c r="N61">
+        <v>0.84</v>
+      </c>
+      <c r="O61">
+        <v>0.16</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K62">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="L62">
+        <v>18</v>
+      </c>
+      <c r="M62">
+        <v>20</v>
+      </c>
+      <c r="N62">
+        <v>0.9</v>
+      </c>
+      <c r="O62">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K63">
+        <v>0.02694300518134715</v>
+      </c>
+      <c r="L63">
+        <v>26</v>
+      </c>
+      <c r="M63">
+        <v>29</v>
+      </c>
+      <c r="N63">
+        <v>0.9</v>
+      </c>
+      <c r="O63">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64">
+        <v>0.01789638932496075</v>
+      </c>
+      <c r="L64">
+        <v>57</v>
+      </c>
+      <c r="M64">
+        <v>73</v>
+      </c>
+      <c r="N64">
+        <v>0.78</v>
+      </c>
+      <c r="O64">
+        <v>0.22</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K65">
+        <v>0.01468048359240069</v>
+      </c>
+      <c r="L65">
         <v>17</v>
       </c>
-      <c r="M59">
-        <v>21</v>
-      </c>
-      <c r="N59">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O59">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>1576</v>
+      <c r="M65">
+        <v>20</v>
+      </c>
+      <c r="N65">
+        <v>0.85</v>
+      </c>
+      <c r="O65">
+        <v>0.15</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1141</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,19 +46,22 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>war</t>
@@ -67,33 +70,30 @@
     <t>shit</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>fears</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -109,181 +109,157 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>credit</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>important</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>want</t>
+    <t>helping</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
-    <t>health</t>
+    <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>san</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>san</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
   </si>
   <si>
     <t>food</t>
@@ -647,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,7 +634,7 @@
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -716,13 +692,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -734,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9393939393939394</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -758,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -766,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -784,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -808,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -816,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6551724137931034</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -834,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -858,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -866,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -884,31 +860,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8738738738738738</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -916,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6388888888888888</v>
+        <v>0.660958904109589</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -958,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -966,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6335616438356164</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -984,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1008,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1016,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1034,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1058,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1066,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5263157894736842</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1084,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.8046875</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1108,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1116,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4871794871794872</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1134,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K11">
-        <v>0.78125</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1158,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1166,7 +1142,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4666666666666667</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -1184,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K12">
-        <v>0.7666666666666667</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L12">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1208,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1216,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4324324324324325</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1234,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K13">
-        <v>0.7586206896551724</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1258,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1266,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4193548387096774</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1284,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K14">
-        <v>0.7464788732394366</v>
+        <v>0.725</v>
       </c>
       <c r="L14">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="M14">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1308,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1316,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3513513513513514</v>
+        <v>0.2926356589147287</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1334,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>365</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K15">
-        <v>0.7452830188679245</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L15">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1358,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1366,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.32</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1384,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7058823529411765</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1408,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1416,13 +1392,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3116883116883117</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1434,13 +1410,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K17">
-        <v>0.7</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L17">
         <v>35</v>
@@ -1458,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1466,37 +1442,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2829457364341085</v>
+        <v>0.2446808510638298</v>
       </c>
       <c r="C18">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="D18">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>370</v>
+        <v>142</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K18">
-        <v>0.675</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L18">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1508,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1516,13 +1492,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2486772486772487</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="C19">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1534,19 +1510,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.675</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1558,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1566,13 +1542,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2147651006711409</v>
+        <v>0.1625</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1584,19 +1560,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K20">
-        <v>0.648936170212766</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1608,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1616,13 +1592,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1349206349206349</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1634,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K21">
-        <v>0.6382978723404256</v>
+        <v>0.66</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1666,13 +1642,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.04825737265415549</v>
+        <v>0.06166219839142091</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1684,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1708,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1716,37 +1692,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005638474295190713</v>
+        <v>0.005303281405369572</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E23">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F23">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2998</v>
+        <v>3001</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1758,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1766,37 +1742,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005089058524173028</v>
+        <v>0.004452926208651399</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E24">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F24">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3128</v>
+        <v>3130</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K24">
-        <v>0.5953002610966057</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L24">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="M24">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1808,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1816,13 +1792,13 @@
         <v>53</v>
       </c>
       <c r="K25">
-        <v>0.5909090909090909</v>
+        <v>0.5953002610966057</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1834,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1842,13 +1818,13 @@
         <v>54</v>
       </c>
       <c r="K26">
-        <v>0.5555555555555556</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1860,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1868,13 +1844,13 @@
         <v>55</v>
       </c>
       <c r="K27">
-        <v>0.5277777777777778</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1886,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1894,13 +1870,13 @@
         <v>56</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1912,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1920,13 +1896,13 @@
         <v>57</v>
       </c>
       <c r="K29">
-        <v>0.4911764705882353</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L29">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="M29">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1938,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>173</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1946,13 +1922,13 @@
         <v>58</v>
       </c>
       <c r="K30">
-        <v>0.4831460674157304</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1964,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1972,13 +1948,13 @@
         <v>59</v>
       </c>
       <c r="K31">
-        <v>0.4769230769230769</v>
+        <v>0.5118644067796611</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1990,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1998,13 +1974,13 @@
         <v>60</v>
       </c>
       <c r="K32">
-        <v>0.4745762711864407</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="M32">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2016,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>155</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2024,13 +2000,13 @@
         <v>61</v>
       </c>
       <c r="K33">
-        <v>0.4642857142857143</v>
+        <v>0.488235294117647</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2042,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2050,13 +2026,13 @@
         <v>62</v>
       </c>
       <c r="K34">
-        <v>0.4435146443514644</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L34">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2068,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>133</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2076,13 +2052,13 @@
         <v>63</v>
       </c>
       <c r="K35">
-        <v>0.4418604651162791</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2094,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2102,13 +2078,13 @@
         <v>64</v>
       </c>
       <c r="K36">
-        <v>0.4383561643835616</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2120,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2128,13 +2104,13 @@
         <v>65</v>
       </c>
       <c r="K37">
-        <v>0.425</v>
+        <v>0.3849372384937239</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2146,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2154,13 +2130,13 @@
         <v>66</v>
       </c>
       <c r="K38">
-        <v>0.421875</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2172,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2180,13 +2156,13 @@
         <v>67</v>
       </c>
       <c r="K39">
-        <v>0.3974358974358974</v>
+        <v>0.34375</v>
       </c>
       <c r="L39">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2198,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2206,13 +2182,13 @@
         <v>68</v>
       </c>
       <c r="K40">
-        <v>0.3777777777777778</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2224,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2232,7 +2208,7 @@
         <v>69</v>
       </c>
       <c r="K41">
-        <v>0.375</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L41">
         <v>15</v>
@@ -2250,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2258,7 +2234,7 @@
         <v>70</v>
       </c>
       <c r="K42">
-        <v>0.2083333333333333</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="L42">
         <v>15</v>
@@ -2276,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2284,13 +2260,13 @@
         <v>71</v>
       </c>
       <c r="K43">
-        <v>0.2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2302,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>56</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2310,25 +2286,25 @@
         <v>72</v>
       </c>
       <c r="K44">
-        <v>0.1789473684210526</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>78</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2336,25 +2312,25 @@
         <v>73</v>
       </c>
       <c r="K45">
-        <v>0.1574803149606299</v>
+        <v>0.07399103139013453</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>107</v>
+        <v>826</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2362,25 +2338,25 @@
         <v>74</v>
       </c>
       <c r="K46">
-        <v>0.1068702290076336</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>117</v>
+        <v>836</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2388,13 +2364,13 @@
         <v>75</v>
       </c>
       <c r="K47">
-        <v>0.1033653846153846</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="L47">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2406,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>373</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2414,25 +2390,25 @@
         <v>76</v>
       </c>
       <c r="K48">
-        <v>0.09876543209876543</v>
+        <v>0.05701078582434515</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N48">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>146</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2440,13 +2416,13 @@
         <v>77</v>
       </c>
       <c r="K49">
-        <v>0.09696969696969697</v>
+        <v>0.05504587155963303</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2458,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>149</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2466,25 +2442,25 @@
         <v>78</v>
       </c>
       <c r="K50">
-        <v>0.08851674641148326</v>
+        <v>0.04948453608247422</v>
       </c>
       <c r="L50">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M50">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>381</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2492,25 +2468,25 @@
         <v>79</v>
       </c>
       <c r="K51">
-        <v>0.08227848101265822</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M51">
         <v>14</v>
       </c>
       <c r="N51">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>145</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2518,25 +2494,25 @@
         <v>80</v>
       </c>
       <c r="K52">
-        <v>0.07476635514018691</v>
+        <v>0.03695150115473441</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N52">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O52">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>198</v>
+        <v>834</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2544,336 +2520,128 @@
         <v>81</v>
       </c>
       <c r="K53">
-        <v>0.06168831168831169</v>
+        <v>0.03609939052977028</v>
       </c>
       <c r="L53">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="M53">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>289</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="K54">
-        <v>0.06046511627906977</v>
+        <v>0.02911679068262698</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>202</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K55">
-        <v>0.058165548098434</v>
+        <v>0.02176165803108808</v>
       </c>
       <c r="L55">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>842</v>
+        <v>944</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="K56">
-        <v>0.05504587155963303</v>
+        <v>0.01788515845622843</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>309</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K57">
-        <v>0.05333333333333334</v>
+        <v>0.01382886776145203</v>
       </c>
       <c r="L57">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="M57">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="N57">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="O57">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K58">
-        <v>0.04742268041237113</v>
-      </c>
-      <c r="L58">
-        <v>23</v>
-      </c>
-      <c r="M58">
-        <v>24</v>
-      </c>
-      <c r="N58">
-        <v>0.96</v>
-      </c>
-      <c r="O58">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K59">
-        <v>0.04411074612857813</v>
-      </c>
-      <c r="L59">
-        <v>94</v>
-      </c>
-      <c r="M59">
-        <v>106</v>
-      </c>
-      <c r="N59">
-        <v>0.89</v>
-      </c>
-      <c r="O59">
-        <v>0.11</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K60">
-        <v>0.04267589388696655</v>
-      </c>
-      <c r="L60">
-        <v>37</v>
-      </c>
-      <c r="M60">
-        <v>37</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K61">
-        <v>0.02977346278317152</v>
-      </c>
-      <c r="L61">
-        <v>92</v>
-      </c>
-      <c r="M61">
-        <v>109</v>
-      </c>
-      <c r="N61">
-        <v>0.84</v>
-      </c>
-      <c r="O61">
-        <v>0.16</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K62">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="L62">
-        <v>18</v>
-      </c>
-      <c r="M62">
-        <v>20</v>
-      </c>
-      <c r="N62">
-        <v>0.9</v>
-      </c>
-      <c r="O62">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K63">
-        <v>0.02694300518134715</v>
-      </c>
-      <c r="L63">
-        <v>26</v>
-      </c>
-      <c r="M63">
-        <v>29</v>
-      </c>
-      <c r="N63">
-        <v>0.9</v>
-      </c>
-      <c r="O63">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
-      <c r="J64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K64">
-        <v>0.01789638932496075</v>
-      </c>
-      <c r="L64">
-        <v>57</v>
-      </c>
-      <c r="M64">
-        <v>73</v>
-      </c>
-      <c r="N64">
-        <v>0.78</v>
-      </c>
-      <c r="O64">
-        <v>0.22</v>
-      </c>
-      <c r="P64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="65" spans="10:17">
-      <c r="J65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K65">
-        <v>0.01468048359240069</v>
-      </c>
-      <c r="L65">
-        <v>17</v>
-      </c>
-      <c r="M65">
-        <v>20</v>
-      </c>
-      <c r="N65">
-        <v>0.85</v>
-      </c>
-      <c r="O65">
-        <v>0.15</v>
-      </c>
-      <c r="P65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q65">
         <v>1141</v>
       </c>
     </row>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,54 +46,54 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -103,163 +103,214 @@
     <t>co</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>food</t>
@@ -623,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,10 +682,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,13 +743,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -734,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -742,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8529411764705882</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -760,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -784,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -792,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6923076923076923</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -810,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5">
         <v>0.9130434782608695</v>
@@ -842,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6666666666666666</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -860,31 +911,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.8738738738738738</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -892,13 +943,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.660958904109589</v>
+        <v>0.6198630136986302</v>
       </c>
       <c r="C7">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D7">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -910,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.8484848484848485</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -934,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -942,13 +993,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,16 +1014,16 @@
         <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.8170731707317073</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L8">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -984,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -992,13 +1043,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5517241379310345</v>
+        <v>0.52</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1010,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1034,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1042,13 +1093,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4102564102564102</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1060,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1084,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1092,13 +1143,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3947368421052632</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1110,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.7535211267605634</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L11">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1134,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1142,13 +1193,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.358974358974359</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1160,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.7446808510638298</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1184,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1192,13 +1243,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3529411764705883</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1210,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.7358490566037735</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1234,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1242,13 +1293,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2933333333333333</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1260,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.725</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L14">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1284,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1292,13 +1343,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2926356589147287</v>
+        <v>0.2906976744186047</v>
       </c>
       <c r="C15">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1310,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1334,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1342,13 +1393,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2909090909090909</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1360,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.7083333333333334</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1384,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1392,13 +1443,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2597402597402597</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1410,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>0.6862745098039216</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1434,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1442,13 +1493,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2446808510638298</v>
+        <v>0.2180851063829787</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E18">
         <v>0.02</v>
@@ -1460,19 +1511,19 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.6818181818181818</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1484,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1492,13 +1543,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2147651006711409</v>
+        <v>0.175</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1510,19 +1561,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.675</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L19">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1534,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1542,13 +1593,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1625</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1560,19 +1611,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1584,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1592,13 +1643,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0873015873015873</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1610,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.66</v>
+        <v>0.70625</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1634,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1642,37 +1693,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06166219839142091</v>
+        <v>0.06989247311827956</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>0.6507936507936508</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1684,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1692,113 +1743,89 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005303281405369572</v>
+        <v>0.006014032743067156</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E23">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F23">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3001</v>
+        <v>2975</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K23">
-        <v>0.6296296296296297</v>
-      </c>
-      <c r="L23">
+      <c r="K24">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <v>30</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>17</v>
-      </c>
-      <c r="M23">
-        <v>17</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.004452926208651399</v>
-      </c>
-      <c r="C24">
-        <v>14</v>
-      </c>
-      <c r="D24">
-        <v>71</v>
-      </c>
-      <c r="E24">
-        <v>0.8</v>
-      </c>
-      <c r="F24">
-        <v>0.2</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>3130</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24">
-        <v>0.6276595744680851</v>
-      </c>
-      <c r="L24">
-        <v>59</v>
-      </c>
-      <c r="M24">
-        <v>59</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>0.5953002610966057</v>
+        <v>0.62</v>
       </c>
       <c r="L25">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1810,21 +1837,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>155</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>0.5925925925925926</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1836,21 +1863,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27">
-        <v>0.5882352941176471</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1862,21 +1889,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L28">
         <v>56</v>
       </c>
-      <c r="K28">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L28">
-        <v>21</v>
-      </c>
       <c r="M28">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1888,21 +1915,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K29">
-        <v>0.550561797752809</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L29">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1914,21 +1941,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K30">
-        <v>0.5230769230769231</v>
+        <v>0.575</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1940,21 +1967,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>0.5118644067796611</v>
+        <v>0.5718015665796344</v>
       </c>
       <c r="L31">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="M31">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1966,21 +1993,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1992,21 +2019,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>0.488235294117647</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L33">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2018,21 +2045,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>174</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K34">
-        <v>0.4615384615384616</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2044,21 +2071,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K35">
-        <v>0.410958904109589</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2070,21 +2097,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>43</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K36">
-        <v>0.3953488372093023</v>
+        <v>0.5152542372881356</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2096,21 +2123,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K37">
-        <v>0.3849372384937239</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L37">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2122,47 +2149,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>147</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K38">
-        <v>0.3777777777777778</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L38">
+        <v>16</v>
+      </c>
+      <c r="M38">
+        <v>16</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>17</v>
-      </c>
-      <c r="M38">
-        <v>17</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>28</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K39">
-        <v>0.34375</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2174,21 +2201,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K40">
-        <v>0.2857142857142857</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2200,21 +2227,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K41">
-        <v>0.2542372881355932</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2226,21 +2253,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K42">
-        <v>0.1181102362204724</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2252,21 +2279,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K43">
-        <v>0.09090909090909091</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L43">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M43">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2278,99 +2305,99 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>380</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K44">
-        <v>0.08433734939759036</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>380</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K45">
-        <v>0.07399103139013453</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L45">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="M45">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>826</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K46">
-        <v>0.07111111111111111</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L46">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M46">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="N46">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>836</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K47">
-        <v>0.06976744186046512</v>
+        <v>0.390625</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2382,47 +2409,47 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K48">
-        <v>0.05701078582434515</v>
+        <v>0.3849372384937239</v>
       </c>
       <c r="L48">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="M48">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="N48">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>612</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K49">
-        <v>0.05504587155963303</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2434,41 +2461,41 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>309</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K50">
-        <v>0.04948453608247422</v>
+        <v>0.325</v>
       </c>
       <c r="L50">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>461</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K51">
-        <v>0.04545454545454546</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="L51">
         <v>14</v>
@@ -2486,85 +2513,85 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>294</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K52">
-        <v>0.03695150115473441</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L52">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>834</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K53">
-        <v>0.03609939052977028</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L53">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="N53">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>2056</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="K54">
-        <v>0.02911679068262698</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="L54">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="M54">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="N54">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>3001</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2572,77 +2599,519 @@
         <v>82</v>
       </c>
       <c r="K55">
-        <v>0.02176165803108808</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N55">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O55">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>944</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="K56">
-        <v>0.01788515845622843</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="L56">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M56">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="N56">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="O56">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>3130</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K57">
-        <v>0.01382886776145203</v>
+        <v>0.1049382716049383</v>
       </c>
       <c r="L57">
+        <v>17</v>
+      </c>
+      <c r="M57">
+        <v>18</v>
+      </c>
+      <c r="N57">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O57">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K58">
+        <v>0.1006289308176101</v>
+      </c>
+      <c r="L58">
         <v>16</v>
       </c>
-      <c r="M57">
+      <c r="M58">
+        <v>16</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K59">
+        <v>0.09302325581395349</v>
+      </c>
+      <c r="L59">
         <v>20</v>
       </c>
-      <c r="N57">
-        <v>0.8</v>
-      </c>
-      <c r="O57">
-        <v>0.2</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>1141</v>
+      <c r="M59">
+        <v>20</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K60">
+        <v>0.08173076923076923</v>
+      </c>
+      <c r="L60">
+        <v>34</v>
+      </c>
+      <c r="M60">
+        <v>34</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K61">
+        <v>0.08165548098434004</v>
+      </c>
+      <c r="L61">
+        <v>73</v>
+      </c>
+      <c r="M61">
+        <v>73</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K62">
+        <v>0.07943925233644859</v>
+      </c>
+      <c r="L62">
+        <v>17</v>
+      </c>
+      <c r="M62">
+        <v>18</v>
+      </c>
+      <c r="N62">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O62">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K63">
+        <v>0.05873261205564142</v>
+      </c>
+      <c r="L63">
+        <v>38</v>
+      </c>
+      <c r="M63">
+        <v>41</v>
+      </c>
+      <c r="N63">
+        <v>0.93</v>
+      </c>
+      <c r="O63">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K64">
+        <v>0.0581039755351682</v>
+      </c>
+      <c r="L64">
+        <v>19</v>
+      </c>
+      <c r="M64">
+        <v>19</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K65">
+        <v>0.05147402901263454</v>
+      </c>
+      <c r="L65">
+        <v>110</v>
+      </c>
+      <c r="M65">
+        <v>116</v>
+      </c>
+      <c r="N65">
+        <v>0.95</v>
+      </c>
+      <c r="O65">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K66">
+        <v>0.04994450610432852</v>
+      </c>
+      <c r="L66">
+        <v>45</v>
+      </c>
+      <c r="M66">
+        <v>45</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K67">
+        <v>0.04734411085450346</v>
+      </c>
+      <c r="L67">
+        <v>41</v>
+      </c>
+      <c r="M67">
+        <v>42</v>
+      </c>
+      <c r="N67">
+        <v>0.98</v>
+      </c>
+      <c r="O67">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K68">
+        <v>0.04626334519572953</v>
+      </c>
+      <c r="L68">
+        <v>13</v>
+      </c>
+      <c r="M68">
+        <v>13</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K69">
+        <v>0.04320987654320987</v>
+      </c>
+      <c r="L69">
+        <v>21</v>
+      </c>
+      <c r="M69">
+        <v>21</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K70">
+        <v>0.03690514729685983</v>
+      </c>
+      <c r="L70">
+        <v>114</v>
+      </c>
+      <c r="M70">
+        <v>132</v>
+      </c>
+      <c r="N70">
+        <v>0.86</v>
+      </c>
+      <c r="O70">
+        <v>0.14</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K71">
+        <v>0.03003533568904593</v>
+      </c>
+      <c r="L71">
+        <v>17</v>
+      </c>
+      <c r="M71">
+        <v>18</v>
+      </c>
+      <c r="N71">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O71">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K72">
+        <v>0.0219435736677116</v>
+      </c>
+      <c r="L72">
+        <v>70</v>
+      </c>
+      <c r="M72">
+        <v>81</v>
+      </c>
+      <c r="N72">
+        <v>0.86</v>
+      </c>
+      <c r="O72">
+        <v>0.14</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K73">
+        <v>0.02173913043478261</v>
+      </c>
+      <c r="L73">
+        <v>21</v>
+      </c>
+      <c r="M73">
+        <v>23</v>
+      </c>
+      <c r="N73">
+        <v>0.91</v>
+      </c>
+      <c r="O73">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K74">
+        <v>0.020671834625323</v>
+      </c>
+      <c r="L74">
+        <v>24</v>
+      </c>
+      <c r="M74">
+        <v>24</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>1137</v>
       </c>
     </row>
   </sheetData>
